--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_3.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1800962.949724739</v>
+        <v>-1802913.1755533</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>10.1651678320597</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>74.61830480392167</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>81.24491187461643</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>31.28468245238249</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,13 +859,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>135.0393428231427</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>358.4767323890871</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>8.146839836414054</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>66.20748566864556</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>146.6850513083903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.2638170343117</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>276.6839610348542</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>8.389005322401392</v>
+        <v>22.35153719005481</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1528,25 +1528,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>48.06571898911159</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>164.471491944556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.87496792751751</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>207.3497777082959</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>52.19551414248161</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>27.91628796493563</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>109.9634471783214</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>5.153926648158099</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,16 +2524,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>109.6556138937047</v>
+        <v>256.111763886877</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E28" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692988</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463128</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415255</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S28" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T28" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U28" t="n">
         <v>218.1054622689367</v>
@@ -2776,7 +2776,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y28" t="n">
         <v>150.4527632224541</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463128</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539636</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U31" t="n">
         <v>218.1054622689367</v>
@@ -3013,10 +3013,10 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X31" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224545</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898712</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857165</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692846</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329054</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789542</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463128</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T34" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287485</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689366</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3250,7 +3250,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
-        <v>157.5777652593965</v>
+        <v>157.5777652593964</v>
       </c>
       <c r="Y34" t="n">
         <v>150.4527632224541</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E37" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463131</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3560,7 +3560,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898721</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857173</v>
       </c>
       <c r="E40" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692855</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329062</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789546</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463137</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415218</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898712</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857165</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692846</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329054</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373688</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789542</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463127</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415208</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T46" t="n">
-        <v>153.4156709287485</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689366</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4198,7 +4198,7 @@
         <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
-        <v>157.5777652593964</v>
+        <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
         <v>150.4527632224541</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.5129866402885</v>
+        <v>422.9054987607761</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2686.881244723213</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2510.703757037383</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2510.703757037383</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2256.941971675474</v>
       </c>
       <c r="V2" t="n">
-        <v>1893.689751284806</v>
+        <v>1925.879084331904</v>
       </c>
       <c r="W2" t="n">
-        <v>1818.31772623034</v>
+        <v>1573.11042906179</v>
       </c>
       <c r="X2" t="n">
-        <v>1736.252158680222</v>
+        <v>1199.64467080071</v>
       </c>
       <c r="Y2" t="n">
-        <v>1346.11282670441</v>
+        <v>809.505338824898</v>
       </c>
     </row>
     <row r="3">
@@ -4386,22 +4386,22 @@
         <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,13 +4410,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>348.0202652891861</v>
+        <v>131.200195599071</v>
       </c>
       <c r="C4" t="n">
-        <v>348.0202652891861</v>
+        <v>131.200195599071</v>
       </c>
       <c r="D4" t="n">
-        <v>348.0202652891861</v>
+        <v>131.200195599071</v>
       </c>
       <c r="E4" t="n">
-        <v>348.0202652891861</v>
+        <v>131.200195599071</v>
       </c>
       <c r="F4" t="n">
-        <v>348.0202652891861</v>
+        <v>131.200195599071</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>131.200195599071</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>131.200195599071</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782191</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>484.4236418782191</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V4" t="n">
-        <v>348.0202652891861</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="W4" t="n">
-        <v>348.0202652891861</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="X4" t="n">
-        <v>348.0202652891861</v>
+        <v>351.9927747426011</v>
       </c>
       <c r="Y4" t="n">
-        <v>348.0202652891861</v>
+        <v>131.200195599071</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1164.312709242129</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C5" t="n">
-        <v>1164.312709242129</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4604,13 +4604,13 @@
         <v>1936.146930626913</v>
       </c>
       <c r="W5" t="n">
-        <v>1927.91779947902</v>
+        <v>1583.378275356799</v>
       </c>
       <c r="X5" t="n">
-        <v>1554.45204121794</v>
+        <v>1209.912517095719</v>
       </c>
       <c r="Y5" t="n">
-        <v>1164.312709242129</v>
+        <v>1209.912517095719</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4635,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4647,13 +4647,13 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,13 +4699,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>351.9727148150933</v>
+        <v>289.7554128984184</v>
       </c>
       <c r="C7" t="n">
-        <v>351.9727148150933</v>
+        <v>120.8192299705115</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>120.8192299705115</v>
       </c>
       <c r="E7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>471.4038777286581</v>
       </c>
       <c r="Y7" t="n">
-        <v>351.9727148150933</v>
+        <v>471.4038777286581</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1353.10866026757</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="C8" t="n">
-        <v>984.1461433271581</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="D8" t="n">
-        <v>984.1461433271581</v>
+        <v>1053.350203651864</v>
       </c>
       <c r="E8" t="n">
-        <v>598.3578907289138</v>
+        <v>667.5619510536199</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>660.6164503044164</v>
       </c>
       <c r="G8" t="n">
         <v>381.1377017843616</v>
@@ -4802,13 +4802,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="W8" t="n">
-        <v>2113.174258592771</v>
+        <v>1816.955293888756</v>
       </c>
       <c r="X8" t="n">
-        <v>1739.708500331692</v>
+        <v>1443.489535627676</v>
       </c>
       <c r="Y8" t="n">
-        <v>1739.708500331692</v>
+        <v>1053.350203651864</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4890,34 +4890,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.3364050629041</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="C10" t="n">
-        <v>507.3364050629041</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="D10" t="n">
-        <v>357.2197656505683</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="E10" t="n">
-        <v>209.3066720681752</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="F10" t="n">
-        <v>62.41672457026485</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="G10" t="n">
-        <v>62.41672457026485</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="H10" t="n">
-        <v>62.41672457026485</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>76.52029211334911</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>76.52029211334911</v>
       </c>
     </row>
     <row r="11">
@@ -5024,40 +5024,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>229.0333923118347</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>378.1030765138945</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>624.8682044203586</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>932.1883377003201</v>
       </c>
       <c r="N12" t="n">
-        <v>1632.773754790662</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2302.237516093321</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
-        <v>2507.25999687553</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>732.6596981028219</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="C13" t="n">
-        <v>563.7235151749151</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="D13" t="n">
-        <v>563.7235151749151</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5224,25 +5224,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1339.289935817595</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488382</v>
+        <v>1050.161297031153</v>
       </c>
       <c r="V13" t="n">
-        <v>898.7925182488382</v>
+        <v>795.4768088252661</v>
       </c>
       <c r="W13" t="n">
-        <v>898.7925182488382</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="X13" t="n">
-        <v>898.7925182488382</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="Y13" t="n">
-        <v>732.6596981028219</v>
+        <v>506.0596387883054</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,19 +5276,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5303,10 +5303,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
         <v>4262.3578574653</v>
@@ -5321,7 +5321,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5343,13 +5343,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
         <v>97.21709146028584</v>
@@ -5358,19 +5358,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>507.0827848727882</v>
+        <v>524.5778132641556</v>
       </c>
       <c r="C16" t="n">
-        <v>507.0827848727882</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D16" t="n">
-        <v>507.0827848727882</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E16" t="n">
-        <v>359.1696912903951</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5440,10 +5440,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1456.61832315637</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1456.61832315637</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1232.832907945875</v>
+        <v>1289.472050650533</v>
       </c>
       <c r="U16" t="n">
-        <v>1232.832907945875</v>
+        <v>1289.472050650533</v>
       </c>
       <c r="V16" t="n">
-        <v>978.1484197399884</v>
+        <v>1034.787562444646</v>
       </c>
       <c r="W16" t="n">
-        <v>688.7312497030279</v>
+        <v>745.3703924076857</v>
       </c>
       <c r="X16" t="n">
-        <v>688.7312497030279</v>
+        <v>745.3703924076857</v>
       </c>
       <c r="Y16" t="n">
-        <v>688.7312497030279</v>
+        <v>524.5778132641556</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,28 +5498,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5534,7 +5534,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>656.1762782006411</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="C19" t="n">
-        <v>656.1762782006411</v>
+        <v>296.8297805162584</v>
       </c>
       <c r="D19" t="n">
-        <v>506.0596387883054</v>
+        <v>296.8297805162584</v>
       </c>
       <c r="E19" t="n">
-        <v>506.0596387883054</v>
+        <v>296.8297805162584</v>
       </c>
       <c r="F19" t="n">
-        <v>359.1696912903951</v>
+        <v>149.9398330183481</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1359.642896448076</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V19" t="n">
-        <v>1104.958408242189</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W19" t="n">
-        <v>1104.958408242189</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X19" t="n">
-        <v>876.9688573441713</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="Y19" t="n">
-        <v>656.1762782006411</v>
+        <v>465.7659634441654</v>
       </c>
     </row>
     <row r="20">
@@ -5735,16 +5735,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5753,7 +5753,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,7 +5768,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395.2468244550147</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>653.9727323706985</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.842081488891</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>1098.713442702449</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V22" t="n">
-        <v>844.0289544965622</v>
+        <v>1093.506541819995</v>
       </c>
       <c r="W22" t="n">
-        <v>844.0289544965622</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="X22" t="n">
-        <v>616.0394035985448</v>
+        <v>804.0893717830343</v>
       </c>
       <c r="Y22" t="n">
-        <v>395.2468244550147</v>
+        <v>804.0893717830343</v>
       </c>
     </row>
     <row r="23">
@@ -5966,73 +5966,73 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,16 +6054,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>138.7081686256435</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>265.3924131404652</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C25" t="n">
-        <v>265.3924131404652</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>964.447598905683</v>
+        <v>1240.217519157017</v>
       </c>
       <c r="V25" t="n">
-        <v>964.447598905683</v>
+        <v>985.5330309511296</v>
       </c>
       <c r="W25" t="n">
-        <v>675.0304288687223</v>
+        <v>696.115860914169</v>
       </c>
       <c r="X25" t="n">
-        <v>447.040877970705</v>
+        <v>468.1263100161517</v>
       </c>
       <c r="Y25" t="n">
-        <v>447.040877970705</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,40 +6209,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
@@ -6269,7 +6269,7 @@
         <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6306,25 +6306,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>659.3731057211721</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>966.6932390011339</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N27" t="n">
-        <v>1517.99338900868</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108341</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229683</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506738</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6385,10 +6385,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6409,25 +6409,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S28" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T28" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U28" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045217</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010327</v>
       </c>
     </row>
     <row r="29">
@@ -6437,43 +6437,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6488,25 +6488,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H31" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6622,10 +6622,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6646,25 +6646,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U31" t="n">
         <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,19 +6710,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6862,7 +6862,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6880,7 +6880,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942116</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,58 +7069,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108335</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229678</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506731</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083211</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504519</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010321</v>
       </c>
     </row>
     <row r="38">
@@ -7169,13 +7169,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,7 +7184,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7193,31 +7193,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649695</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116389</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P40" t="n">
         <v>1932.236826184156</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7397,43 +7397,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7485,7 +7485,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.047598850672</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083205</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108341</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229683</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506737</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083217</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504524</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028587</v>
@@ -7807,22 +7807,22 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384657</v>
@@ -7831,25 +7831,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045216</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010327</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8058,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.0294169142008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>91.23759968302144</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,19 +8775,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>29.47535963978235</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445218</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776749</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>34.78428385445218</v>
@@ -9954,28 +9954,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>127.6461250100648</v>
       </c>
       <c r="N27" t="n">
-        <v>223.6742649934478</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,31 +10188,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10352,7 +10352,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504502</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>449.5135334928325</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22550,16 +22550,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>214.2104964314979</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>288.4861888038526</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22756,16 +22756,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>117.0983005006853</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,25 +23464,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>173.4818420692777</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>54.11316140753874</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>68.08938447627528</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>14.19778335009332</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>114.298054320896</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>258.3210644336417</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>111.5841138800679</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>246.9837166756699</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24412,16 +24412,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>176.5817385048726</v>
+        <v>30.12558851170036</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-2.720046538017391e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>-3.781123690085807e-13</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>58099.54682262557</v>
+        <v>58099.54682262555</v>
       </c>
       <c r="C2" t="n">
         <v>61578.13273982122</v>
@@ -26323,37 +26323,37 @@
         <v>58654.35896065632</v>
       </c>
       <c r="F2" t="n">
-        <v>58654.35896065631</v>
+        <v>58654.35896065628</v>
       </c>
       <c r="G2" t="n">
         <v>58654.3589606563</v>
       </c>
       <c r="H2" t="n">
-        <v>58654.35896065629</v>
+        <v>58654.3589606563</v>
       </c>
       <c r="I2" t="n">
-        <v>58654.35896065629</v>
+        <v>58654.35896065627</v>
       </c>
       <c r="J2" t="n">
         <v>61578.13273982126</v>
       </c>
       <c r="K2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="L2" t="n">
-        <v>61578.13273982125</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="M2" t="n">
-        <v>61578.13273982124</v>
+        <v>61578.13273982127</v>
       </c>
       <c r="N2" t="n">
+        <v>61578.13273982128</v>
+      </c>
+      <c r="O2" t="n">
+        <v>61578.13273982128</v>
+      </c>
+      <c r="P2" t="n">
         <v>61578.13273982127</v>
-      </c>
-      <c r="O2" t="n">
-        <v>61578.13273982125</v>
-      </c>
-      <c r="P2" t="n">
-        <v>61578.13273982124</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>230928.7312963055</v>
+        <v>230928.7312963054</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,16 +26396,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>54505.51210371252</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="P3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26424,40 +26424,40 @@
         <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007525</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007525</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7916.731656007497</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="F4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007504</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.731656007538</v>
-      </c>
       <c r="J4" t="n">
-        <v>30335.51889732799</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="K4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.518897328</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732798</v>
       </c>
       <c r="M4" t="n">
         <v>30335.51889732797</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732794</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
+        <v>30335.51889732797</v>
+      </c>
+      <c r="P4" t="n">
         <v>30335.51889732796</v>
-      </c>
-      <c r="P4" t="n">
-        <v>30335.51889732798</v>
       </c>
     </row>
     <row r="5">
@@ -26479,7 +26479,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26488,7 +26488,7 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002539</v>
@@ -26497,19 +26497,19 @@
         <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-736171.6283569768</v>
+        <v>-736287.5812208833</v>
       </c>
       <c r="C6" t="n">
         <v>-169197.9940395091</v>
@@ -26528,40 +26528,40 @@
         <v>-169197.9940395091</v>
       </c>
       <c r="E6" t="n">
-        <v>-566409.7351209639</v>
+        <v>-566507.194246936</v>
       </c>
       <c r="F6" t="n">
-        <v>-41249.69864406779</v>
+        <v>-41347.15777004004</v>
       </c>
       <c r="G6" t="n">
-        <v>-41249.69864406781</v>
+        <v>-41347.15777003999</v>
       </c>
       <c r="H6" t="n">
-        <v>-41249.69864406784</v>
+        <v>-41347.15777003997</v>
       </c>
       <c r="I6" t="n">
-        <v>-41249.69864406786</v>
+        <v>-41347.15777004005</v>
       </c>
       <c r="J6" t="n">
-        <v>-297401.2232738376</v>
+        <v>-297401.2232738375</v>
       </c>
       <c r="K6" t="n">
-        <v>-66472.4919775321</v>
+        <v>-66472.49197753212</v>
       </c>
       <c r="L6" t="n">
-        <v>-66472.4919775321</v>
+        <v>-66472.49197753212</v>
       </c>
       <c r="M6" t="n">
-        <v>-201273.5072113693</v>
+        <v>-201273.5072113692</v>
       </c>
       <c r="N6" t="n">
-        <v>-66472.49197753207</v>
+        <v>-66472.49197753206</v>
       </c>
       <c r="O6" t="n">
         <v>-120978.0040812446</v>
       </c>
       <c r="P6" t="n">
-        <v>-66472.49197753218</v>
+        <v>-66472.4919775321</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26738,16 +26738,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26759,22 +26759,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,10 +26944,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>192.6655493102135</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>44.31323474275199</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>274.6226639134914</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>103.6809393399557</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>24.25710927439343</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27676,13 +27676,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>341.0941288809989</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>80.22647697792361</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>71.89960204370448</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>205.6122287073998</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>137.1002089859408</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>126.5766164699368</v>
+        <v>112.6140846022834</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="29">
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964071</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="38">
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964062</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964071</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,10 +32163,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34778,7 +34778,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34787,7 +34787,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>133.1477786379281</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,19 +35495,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>117.4883924248565</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,28 +35647,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091996</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,28 +36674,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>438.070502060531</v>
       </c>
       <c r="N27" t="n">
-        <v>556.8688383914607</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K28" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L28" t="n">
         <v>318.3460770095692</v>
@@ -36771,7 +36771,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q28" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L31" t="n">
         <v>318.3460770095692</v>
@@ -37008,7 +37008,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q31" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.691066710907</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,16 +37224,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K34" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L34" t="n">
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086132</v>
+        <v>342.4417313086133</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
@@ -37245,7 +37245,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q34" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37476,10 +37476,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37947,10 +37947,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520624</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L46" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
         <v>341.4087679352443</v>
@@ -38190,10 +38190,10 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
